--- a/plots/Mach5_cells.xlsx
+++ b/plots/Mach5_cells.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="17260" tabRatio="500"/>
+    <workbookView xWindow="3100" yWindow="1120" windowWidth="24480" windowHeight="17260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="viscosity" sheetId="2" r:id="rId1"/>
     <sheet name="Mach5_cells0.csv" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -6181,11 +6181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110806232"/>
-        <c:axId val="-2124716296"/>
+        <c:axId val="2141945080"/>
+        <c:axId val="2141066584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110806232"/>
+        <c:axId val="2141945080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.05"/>
@@ -6226,12 +6226,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124716296"/>
+        <c:crossAx val="2141066584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124716296"/>
+        <c:axId val="2141066584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6276,7 +6276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110806232"/>
+        <c:crossAx val="2141945080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6316,7 +6316,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="193" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -6327,7 +6327,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8567565" cy="5823575"/>
+    <xdr:ext cx="8565745" cy="5818582"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6674,7 +6674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J501"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
